--- a/Francia 2015-2018.xlsx
+++ b/Francia 2015-2018.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentiunict-my.sharepoint.com/personal/marco_platania_unict_it/Documents/Lavori su Catania/Ruggieri/ecosistemi industriali/seconda fascia A/database/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prgca\Desktop\Lavoro\Progetti_2023\EU_Ecosystems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="8_{C66DF206-EE3C-4CBD-B71A-8588952FCF9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AAD9DE1C-F5E2-4F29-B2A3-EF3559D97B67}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E76D7F78-E833-4288-81AE-852010A13B25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{4EA4C69E-18DF-43BA-9248-FCE10020F1A0}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{4EA4C69E-18DF-43BA-9248-FCE10020F1A0}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="62">
   <si>
     <t>CPA_A01</t>
   </si>
@@ -214,12 +214,6 @@
     <t>CPA_S96</t>
   </si>
   <si>
-    <t>CPA_T</t>
-  </si>
-  <si>
-    <t>CPA_U</t>
-  </si>
-  <si>
     <t>CPA_O</t>
   </si>
   <si>
@@ -234,8 +228,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="#,##0.0"/>
-    <numFmt numFmtId="166" formatCode="#,##0.##########"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    <numFmt numFmtId="165" formatCode="#,##0.##########"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -303,7 +297,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -341,28 +335,17 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -370,13 +353,13 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -388,7 +371,6 @@
     <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -704,23 +686,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9863749-3358-49B1-8549-3837019CD5AC}">
-  <dimension ref="A1:BM65"/>
+  <dimension ref="A1:BK63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AO2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="BF2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:BM1"/>
+      <selection pane="bottomRight" activeCell="BJ64" sqref="BJ64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.45" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.5" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.125" style="5" customWidth="1"/>
-    <col min="2" max="65" width="8.75" style="5" customWidth="1"/>
-    <col min="66" max="16384" width="9" style="5"/>
+    <col min="1" max="1" width="13.08203125" style="5" customWidth="1"/>
+    <col min="2" max="63" width="8.75" style="5" customWidth="1"/>
+    <col min="64" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:65" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:63" ht="11.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6"/>
       <c r="B1" s="12" t="s">
         <v>0</v>
@@ -852,7 +834,7 @@
         <v>42</v>
       </c>
       <c r="AS1" s="12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AT1" s="12" t="s">
         <v>43</v>
@@ -882,10 +864,10 @@
         <v>51</v>
       </c>
       <c r="BC1" s="12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="BD1" s="12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="BE1" s="12" t="s">
         <v>52</v>
@@ -908,14 +890,8 @@
       <c r="BK1" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="BL1" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="BM1" s="12" t="s">
-        <v>60</v>
-      </c>
     </row>
-    <row r="2" spans="1:65" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:63" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
@@ -1105,14 +1081,8 @@
       <c r="BK2" s="8">
         <v>0.02</v>
       </c>
-      <c r="BL2" s="9">
-        <v>0</v>
-      </c>
-      <c r="BM2" s="9">
-        <v>0</v>
-      </c>
     </row>
-    <row r="3" spans="1:65" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:63" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
@@ -1302,14 +1272,8 @@
       <c r="BK3" s="10">
         <v>0.05</v>
       </c>
-      <c r="BL3" s="11">
-        <v>0</v>
-      </c>
-      <c r="BM3" s="11">
-        <v>0</v>
-      </c>
     </row>
-    <row r="4" spans="1:65" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:63" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>2</v>
       </c>
@@ -1499,14 +1463,8 @@
       <c r="BK4" s="9">
         <v>0</v>
       </c>
-      <c r="BL4" s="9">
-        <v>0</v>
-      </c>
-      <c r="BM4" s="9">
-        <v>0</v>
-      </c>
     </row>
-    <row r="5" spans="1:65" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:63" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
         <v>3</v>
       </c>
@@ -1696,14 +1654,8 @@
       <c r="BK5" s="10">
         <v>1.23</v>
       </c>
-      <c r="BL5" s="11">
-        <v>0</v>
-      </c>
-      <c r="BM5" s="11">
-        <v>0</v>
-      </c>
     </row>
-    <row r="6" spans="1:65" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:63" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
         <v>4</v>
       </c>
@@ -1893,14 +1845,8 @@
       <c r="BK6" s="8">
         <v>57.49</v>
       </c>
-      <c r="BL6" s="9">
-        <v>0</v>
-      </c>
-      <c r="BM6" s="9">
-        <v>0</v>
-      </c>
     </row>
-    <row r="7" spans="1:65" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:63" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
         <v>5</v>
       </c>
@@ -2090,14 +2036,8 @@
       <c r="BK7" s="10">
         <v>0.22</v>
       </c>
-      <c r="BL7" s="11">
-        <v>0</v>
-      </c>
-      <c r="BM7" s="11">
-        <v>0</v>
-      </c>
     </row>
-    <row r="8" spans="1:65" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:63" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
         <v>6</v>
       </c>
@@ -2287,14 +2227,8 @@
       <c r="BK8" s="8">
         <v>1.58</v>
       </c>
-      <c r="BL8" s="9">
-        <v>0</v>
-      </c>
-      <c r="BM8" s="9">
-        <v>0</v>
-      </c>
     </row>
-    <row r="9" spans="1:65" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:63" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
         <v>7</v>
       </c>
@@ -2484,14 +2418,8 @@
       <c r="BK9" s="10">
         <v>17.66</v>
       </c>
-      <c r="BL9" s="11">
-        <v>0</v>
-      </c>
-      <c r="BM9" s="11">
-        <v>0</v>
-      </c>
     </row>
-    <row r="10" spans="1:65" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:63" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
         <v>8</v>
       </c>
@@ -2681,14 +2609,8 @@
       <c r="BK10" s="8">
         <v>46.37</v>
       </c>
-      <c r="BL10" s="9">
-        <v>0</v>
-      </c>
-      <c r="BM10" s="9">
-        <v>0</v>
-      </c>
     </row>
-    <row r="11" spans="1:65" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:63" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
         <v>9</v>
       </c>
@@ -2878,14 +2800,8 @@
       <c r="BK11" s="10">
         <v>41.97</v>
       </c>
-      <c r="BL11" s="11">
-        <v>0</v>
-      </c>
-      <c r="BM11" s="11">
-        <v>0</v>
-      </c>
     </row>
-    <row r="12" spans="1:65" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:63" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
         <v>10</v>
       </c>
@@ -3075,14 +2991,8 @@
       <c r="BK12" s="8">
         <v>7.59</v>
       </c>
-      <c r="BL12" s="9">
-        <v>0</v>
-      </c>
-      <c r="BM12" s="9">
-        <v>0</v>
-      </c>
     </row>
-    <row r="13" spans="1:65" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:63" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
         <v>11</v>
       </c>
@@ -3272,14 +3182,8 @@
       <c r="BK13" s="10">
         <v>0.1</v>
       </c>
-      <c r="BL13" s="11">
-        <v>0</v>
-      </c>
-      <c r="BM13" s="11">
-        <v>0</v>
-      </c>
     </row>
-    <row r="14" spans="1:65" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:63" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
         <v>12</v>
       </c>
@@ -3469,14 +3373,8 @@
       <c r="BK14" s="8">
         <v>38.880000000000003</v>
       </c>
-      <c r="BL14" s="9">
-        <v>0</v>
-      </c>
-      <c r="BM14" s="9">
-        <v>0</v>
-      </c>
     </row>
-    <row r="15" spans="1:65" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:63" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="s">
         <v>13</v>
       </c>
@@ -3666,14 +3564,8 @@
       <c r="BK15" s="10">
         <v>5.76</v>
       </c>
-      <c r="BL15" s="11">
-        <v>0</v>
-      </c>
-      <c r="BM15" s="11">
-        <v>0</v>
-      </c>
     </row>
-    <row r="16" spans="1:65" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:63" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="s">
         <v>14</v>
       </c>
@@ -3863,14 +3755,8 @@
       <c r="BK16" s="8">
         <v>26.46</v>
       </c>
-      <c r="BL16" s="9">
-        <v>0</v>
-      </c>
-      <c r="BM16" s="9">
-        <v>0</v>
-      </c>
     </row>
-    <row r="17" spans="1:65" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:63" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A17" s="7" t="s">
         <v>15</v>
       </c>
@@ -4060,14 +3946,8 @@
       <c r="BK17" s="10">
         <v>21.91</v>
       </c>
-      <c r="BL17" s="11">
-        <v>0</v>
-      </c>
-      <c r="BM17" s="11">
-        <v>0</v>
-      </c>
     </row>
-    <row r="18" spans="1:65" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:63" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A18" s="7" t="s">
         <v>16</v>
       </c>
@@ -4257,14 +4137,8 @@
       <c r="BK18" s="8">
         <v>28.28</v>
       </c>
-      <c r="BL18" s="9">
-        <v>0</v>
-      </c>
-      <c r="BM18" s="9">
-        <v>0</v>
-      </c>
     </row>
-    <row r="19" spans="1:65" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:63" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A19" s="7" t="s">
         <v>17</v>
       </c>
@@ -4454,14 +4328,8 @@
       <c r="BK19" s="10">
         <v>60.19</v>
       </c>
-      <c r="BL19" s="11">
-        <v>0</v>
-      </c>
-      <c r="BM19" s="11">
-        <v>0</v>
-      </c>
     </row>
-    <row r="20" spans="1:65" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:63" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A20" s="7" t="s">
         <v>18</v>
       </c>
@@ -4651,14 +4519,8 @@
       <c r="BK20" s="8">
         <v>96.24</v>
       </c>
-      <c r="BL20" s="9">
-        <v>0</v>
-      </c>
-      <c r="BM20" s="9">
-        <v>0</v>
-      </c>
     </row>
-    <row r="21" spans="1:65" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:63" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A21" s="7" t="s">
         <v>19</v>
       </c>
@@ -4848,14 +4710,8 @@
       <c r="BK21" s="10">
         <v>18.61</v>
       </c>
-      <c r="BL21" s="11">
-        <v>0</v>
-      </c>
-      <c r="BM21" s="11">
-        <v>0</v>
-      </c>
     </row>
-    <row r="22" spans="1:65" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:63" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A22" s="7" t="s">
         <v>20</v>
       </c>
@@ -5045,14 +4901,8 @@
       <c r="BK22" s="8">
         <v>10.66</v>
       </c>
-      <c r="BL22" s="9">
-        <v>0</v>
-      </c>
-      <c r="BM22" s="9">
-        <v>0</v>
-      </c>
     </row>
-    <row r="23" spans="1:65" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:63" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A23" s="7" t="s">
         <v>21</v>
       </c>
@@ -5242,14 +5092,8 @@
       <c r="BK23" s="10">
         <v>6.56</v>
       </c>
-      <c r="BL23" s="11">
-        <v>0</v>
-      </c>
-      <c r="BM23" s="11">
-        <v>0</v>
-      </c>
     </row>
-    <row r="24" spans="1:65" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:63" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A24" s="7" t="s">
         <v>22</v>
       </c>
@@ -5439,14 +5283,8 @@
       <c r="BK24" s="8">
         <v>15.95</v>
       </c>
-      <c r="BL24" s="9">
-        <v>0</v>
-      </c>
-      <c r="BM24" s="9">
-        <v>0</v>
-      </c>
     </row>
-    <row r="25" spans="1:65" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:63" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A25" s="7" t="s">
         <v>23</v>
       </c>
@@ -5636,14 +5474,8 @@
       <c r="BK25" s="10">
         <v>13.09</v>
       </c>
-      <c r="BL25" s="11">
-        <v>0</v>
-      </c>
-      <c r="BM25" s="11">
-        <v>0</v>
-      </c>
     </row>
-    <row r="26" spans="1:65" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:63" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A26" s="7" t="s">
         <v>24</v>
       </c>
@@ -5833,14 +5665,8 @@
       <c r="BK26" s="8">
         <v>1.89</v>
       </c>
-      <c r="BL26" s="9">
-        <v>0</v>
-      </c>
-      <c r="BM26" s="9">
-        <v>0</v>
-      </c>
     </row>
-    <row r="27" spans="1:65" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:63" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A27" s="7" t="s">
         <v>25</v>
       </c>
@@ -6030,14 +5856,8 @@
       <c r="BK27" s="10">
         <v>53.51</v>
       </c>
-      <c r="BL27" s="11">
-        <v>0</v>
-      </c>
-      <c r="BM27" s="11">
-        <v>0</v>
-      </c>
     </row>
-    <row r="28" spans="1:65" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:63" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A28" s="7" t="s">
         <v>26</v>
       </c>
@@ -6227,14 +6047,8 @@
       <c r="BK28" s="8">
         <v>21.4</v>
       </c>
-      <c r="BL28" s="9">
-        <v>0</v>
-      </c>
-      <c r="BM28" s="9">
-        <v>0</v>
-      </c>
     </row>
-    <row r="29" spans="1:65" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:63" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A29" s="7" t="s">
         <v>27</v>
       </c>
@@ -6424,14 +6238,8 @@
       <c r="BK29" s="10">
         <v>26.35</v>
       </c>
-      <c r="BL29" s="11">
-        <v>0</v>
-      </c>
-      <c r="BM29" s="11">
-        <v>0</v>
-      </c>
     </row>
-    <row r="30" spans="1:65" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:63" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A30" s="7" t="s">
         <v>28</v>
       </c>
@@ -6621,14 +6429,8 @@
       <c r="BK30" s="8">
         <v>114.37</v>
       </c>
-      <c r="BL30" s="9">
-        <v>0</v>
-      </c>
-      <c r="BM30" s="9">
-        <v>0</v>
-      </c>
     </row>
-    <row r="31" spans="1:65" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:63" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A31" s="7" t="s">
         <v>29</v>
       </c>
@@ -6818,14 +6620,8 @@
       <c r="BK31" s="10">
         <v>8.68</v>
       </c>
-      <c r="BL31" s="11">
-        <v>0</v>
-      </c>
-      <c r="BM31" s="11">
-        <v>0</v>
-      </c>
     </row>
-    <row r="32" spans="1:65" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:63" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A32" s="7" t="s">
         <v>30</v>
       </c>
@@ -7015,14 +6811,8 @@
       <c r="BK32" s="8">
         <v>49.26</v>
       </c>
-      <c r="BL32" s="9">
-        <v>0</v>
-      </c>
-      <c r="BM32" s="9">
-        <v>0</v>
-      </c>
     </row>
-    <row r="33" spans="1:65" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:63" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A33" s="7" t="s">
         <v>31</v>
       </c>
@@ -7212,14 +7002,8 @@
       <c r="BK33" s="10">
         <v>0.03</v>
       </c>
-      <c r="BL33" s="11">
-        <v>0</v>
-      </c>
-      <c r="BM33" s="11">
-        <v>0</v>
-      </c>
     </row>
-    <row r="34" spans="1:65" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:63" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A34" s="7" t="s">
         <v>32</v>
       </c>
@@ -7409,14 +7193,8 @@
       <c r="BK34" s="8">
         <v>29.08</v>
       </c>
-      <c r="BL34" s="9">
-        <v>0</v>
-      </c>
-      <c r="BM34" s="9">
-        <v>0</v>
-      </c>
     </row>
-    <row r="35" spans="1:65" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:63" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A35" s="7" t="s">
         <v>33</v>
       </c>
@@ -7606,14 +7384,8 @@
       <c r="BK35" s="10">
         <v>61.93</v>
       </c>
-      <c r="BL35" s="11">
-        <v>0</v>
-      </c>
-      <c r="BM35" s="11">
-        <v>0</v>
-      </c>
     </row>
-    <row r="36" spans="1:65" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:63" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A36" s="7" t="s">
         <v>34</v>
       </c>
@@ -7803,14 +7575,8 @@
       <c r="BK36" s="8">
         <v>62.37</v>
       </c>
-      <c r="BL36" s="9">
-        <v>0</v>
-      </c>
-      <c r="BM36" s="9">
-        <v>0</v>
-      </c>
     </row>
-    <row r="37" spans="1:65" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:63" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A37" s="7" t="s">
         <v>35</v>
       </c>
@@ -8000,14 +7766,8 @@
       <c r="BK37" s="10">
         <v>127.31</v>
       </c>
-      <c r="BL37" s="11">
-        <v>0</v>
-      </c>
-      <c r="BM37" s="11">
-        <v>0</v>
-      </c>
     </row>
-    <row r="38" spans="1:65" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:63" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A38" s="7" t="s">
         <v>36</v>
       </c>
@@ -8197,14 +7957,8 @@
       <c r="BK38" s="8">
         <v>1.07</v>
       </c>
-      <c r="BL38" s="9">
-        <v>0</v>
-      </c>
-      <c r="BM38" s="9">
-        <v>0</v>
-      </c>
     </row>
-    <row r="39" spans="1:65" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:63" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A39" s="7" t="s">
         <v>37</v>
       </c>
@@ -8394,14 +8148,8 @@
       <c r="BK39" s="10">
         <v>94.43</v>
       </c>
-      <c r="BL39" s="11">
-        <v>0</v>
-      </c>
-      <c r="BM39" s="11">
-        <v>0</v>
-      </c>
     </row>
-    <row r="40" spans="1:65" ht="15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:63" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A40" s="7" t="s">
         <v>38</v>
       </c>
@@ -8591,14 +8339,8 @@
       <c r="BK40" s="8">
         <v>161.76</v>
       </c>
-      <c r="BL40" s="9">
-        <v>0</v>
-      </c>
-      <c r="BM40" s="9">
-        <v>0</v>
-      </c>
     </row>
-    <row r="41" spans="1:65" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:63" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A41" s="7" t="s">
         <v>39</v>
       </c>
@@ -8788,14 +8530,8 @@
       <c r="BK41" s="10">
         <v>37.44</v>
       </c>
-      <c r="BL41" s="11">
-        <v>0</v>
-      </c>
-      <c r="BM41" s="11">
-        <v>0</v>
-      </c>
     </row>
-    <row r="42" spans="1:65" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:63" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A42" s="7" t="s">
         <v>40</v>
       </c>
@@ -8985,14 +8721,8 @@
       <c r="BK42" s="8">
         <v>258.79000000000002</v>
       </c>
-      <c r="BL42" s="9">
-        <v>0</v>
-      </c>
-      <c r="BM42" s="9">
-        <v>0</v>
-      </c>
     </row>
-    <row r="43" spans="1:65" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:63" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A43" s="7" t="s">
         <v>41</v>
       </c>
@@ -9182,14 +8912,8 @@
       <c r="BK43" s="11">
         <v>48</v>
       </c>
-      <c r="BL43" s="11">
-        <v>0</v>
-      </c>
-      <c r="BM43" s="11">
-        <v>0</v>
-      </c>
     </row>
-    <row r="44" spans="1:65" ht="15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:63" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A44" s="7" t="s">
         <v>42</v>
       </c>
@@ -9379,16 +9103,10 @@
       <c r="BK44" s="8">
         <v>38.090000000000003</v>
       </c>
-      <c r="BL44" s="9">
-        <v>0</v>
-      </c>
-      <c r="BM44" s="9">
-        <v>0</v>
-      </c>
     </row>
-    <row r="45" spans="1:65" ht="15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:63" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A45" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B45" s="8">
         <v>15.22</v>
@@ -9576,14 +9294,8 @@
       <c r="BK45" s="8">
         <v>129.35</v>
       </c>
-      <c r="BL45" s="9">
-        <v>0</v>
-      </c>
-      <c r="BM45" s="9">
-        <v>0</v>
-      </c>
     </row>
-    <row r="46" spans="1:65" ht="15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:63" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A46" s="7" t="s">
         <v>43</v>
       </c>
@@ -9773,14 +9485,8 @@
       <c r="BK46" s="10">
         <v>394.58</v>
       </c>
-      <c r="BL46" s="11">
-        <v>0</v>
-      </c>
-      <c r="BM46" s="11">
-        <v>0</v>
-      </c>
     </row>
-    <row r="47" spans="1:65" ht="15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:63" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A47" s="7" t="s">
         <v>44</v>
       </c>
@@ -9970,14 +9676,8 @@
       <c r="BK47" s="8">
         <v>379.74</v>
       </c>
-      <c r="BL47" s="9">
-        <v>0</v>
-      </c>
-      <c r="BM47" s="9">
-        <v>0</v>
-      </c>
     </row>
-    <row r="48" spans="1:65" ht="15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:63" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A48" s="7" t="s">
         <v>45</v>
       </c>
@@ -10167,14 +9867,8 @@
       <c r="BK48" s="11">
         <v>0</v>
       </c>
-      <c r="BL48" s="11">
-        <v>0</v>
-      </c>
-      <c r="BM48" s="11">
-        <v>0</v>
-      </c>
     </row>
-    <row r="49" spans="1:65" ht="15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:63" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A49" s="7" t="s">
         <v>46</v>
       </c>
@@ -10364,14 +10058,8 @@
       <c r="BK49" s="8">
         <v>0.34</v>
       </c>
-      <c r="BL49" s="9">
-        <v>0</v>
-      </c>
-      <c r="BM49" s="9">
-        <v>0</v>
-      </c>
     </row>
-    <row r="50" spans="1:65" ht="15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:63" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A50" s="7" t="s">
         <v>47</v>
       </c>
@@ -10561,14 +10249,8 @@
       <c r="BK50" s="10">
         <v>30.31</v>
       </c>
-      <c r="BL50" s="11">
-        <v>0</v>
-      </c>
-      <c r="BM50" s="11">
-        <v>0</v>
-      </c>
     </row>
-    <row r="51" spans="1:65" ht="15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:63" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A51" s="7" t="s">
         <v>48</v>
       </c>
@@ -10758,14 +10440,8 @@
       <c r="BK51" s="8">
         <v>1427.04</v>
       </c>
-      <c r="BL51" s="9">
-        <v>0</v>
-      </c>
-      <c r="BM51" s="9">
-        <v>0</v>
-      </c>
     </row>
-    <row r="52" spans="1:65" ht="15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:63" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A52" s="7" t="s">
         <v>49</v>
       </c>
@@ -10955,14 +10631,8 @@
       <c r="BK52" s="10">
         <v>90.03</v>
       </c>
-      <c r="BL52" s="11">
-        <v>0</v>
-      </c>
-      <c r="BM52" s="11">
-        <v>0</v>
-      </c>
     </row>
-    <row r="53" spans="1:65" ht="15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:63" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A53" s="7" t="s">
         <v>50</v>
       </c>
@@ -11152,14 +10822,8 @@
       <c r="BK53" s="8">
         <v>5.68</v>
       </c>
-      <c r="BL53" s="9">
-        <v>0</v>
-      </c>
-      <c r="BM53" s="9">
-        <v>0</v>
-      </c>
     </row>
-    <row r="54" spans="1:65" ht="15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:63" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A54" s="7" t="s">
         <v>51</v>
       </c>
@@ -11349,16 +11013,10 @@
       <c r="BK54" s="10">
         <v>282.48</v>
       </c>
-      <c r="BL54" s="11">
-        <v>0</v>
-      </c>
-      <c r="BM54" s="11">
-        <v>0</v>
-      </c>
     </row>
-    <row r="55" spans="1:65" ht="15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:63" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A55" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B55" s="11">
         <v>0</v>
@@ -11546,16 +11204,10 @@
       <c r="BK55" s="11">
         <v>0</v>
       </c>
-      <c r="BL55" s="11">
-        <v>0</v>
-      </c>
-      <c r="BM55" s="11">
-        <v>0</v>
-      </c>
     </row>
-    <row r="56" spans="1:65" ht="15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:63" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A56" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B56" s="8">
         <v>105.77</v>
@@ -11743,14 +11395,8 @@
       <c r="BK56" s="8">
         <v>33.979999999999997</v>
       </c>
-      <c r="BL56" s="9">
-        <v>0</v>
-      </c>
-      <c r="BM56" s="9">
-        <v>0</v>
-      </c>
     </row>
-    <row r="57" spans="1:65" ht="15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:63" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A57" s="7" t="s">
         <v>52</v>
       </c>
@@ -11940,14 +11586,8 @@
       <c r="BK57" s="8">
         <v>6.5</v>
       </c>
-      <c r="BL57" s="9">
-        <v>0</v>
-      </c>
-      <c r="BM57" s="9">
-        <v>0</v>
-      </c>
     </row>
-    <row r="58" spans="1:65" ht="15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:63" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A58" s="7" t="s">
         <v>53</v>
       </c>
@@ -12137,14 +11777,8 @@
       <c r="BK58" s="11">
         <v>0</v>
       </c>
-      <c r="BL58" s="11">
-        <v>0</v>
-      </c>
-      <c r="BM58" s="11">
-        <v>0</v>
-      </c>
     </row>
-    <row r="59" spans="1:65" ht="15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:63" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A59" s="7" t="s">
         <v>54</v>
       </c>
@@ -12334,14 +11968,8 @@
       <c r="BK59" s="8">
         <v>3.92</v>
       </c>
-      <c r="BL59" s="9">
-        <v>0</v>
-      </c>
-      <c r="BM59" s="9">
-        <v>0</v>
-      </c>
     </row>
-    <row r="60" spans="1:65" ht="15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:63" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A60" s="7" t="s">
         <v>55</v>
       </c>
@@ -12531,14 +12159,8 @@
       <c r="BK60" s="10">
         <v>18.89</v>
       </c>
-      <c r="BL60" s="11">
-        <v>0</v>
-      </c>
-      <c r="BM60" s="11">
-        <v>0</v>
-      </c>
     </row>
-    <row r="61" spans="1:65" ht="15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:63" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A61" s="7" t="s">
         <v>56</v>
       </c>
@@ -12728,14 +12350,8 @@
       <c r="BK61" s="9">
         <v>0</v>
       </c>
-      <c r="BL61" s="9">
-        <v>0</v>
-      </c>
-      <c r="BM61" s="9">
-        <v>0</v>
-      </c>
     </row>
-    <row r="62" spans="1:65" ht="15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:63" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A62" s="7" t="s">
         <v>57</v>
       </c>
@@ -12925,14 +12541,8 @@
       <c r="BK62" s="10">
         <v>8.48</v>
       </c>
-      <c r="BL62" s="11">
-        <v>0</v>
-      </c>
-      <c r="BM62" s="11">
-        <v>0</v>
-      </c>
     </row>
-    <row r="63" spans="1:65" ht="15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:63" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A63" s="7" t="s">
         <v>58</v>
       </c>
@@ -13121,406 +12731,6 @@
       </c>
       <c r="BK63" s="8">
         <v>1094.18</v>
-      </c>
-      <c r="BL63" s="9">
-        <v>0</v>
-      </c>
-      <c r="BM63" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:65" ht="15" x14ac:dyDescent="0.25">
-      <c r="A64" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="B64" s="11">
-        <v>0</v>
-      </c>
-      <c r="C64" s="11">
-        <v>0</v>
-      </c>
-      <c r="D64" s="11">
-        <v>0</v>
-      </c>
-      <c r="E64" s="11">
-        <v>0</v>
-      </c>
-      <c r="F64" s="11">
-        <v>0</v>
-      </c>
-      <c r="G64" s="11">
-        <v>0</v>
-      </c>
-      <c r="H64" s="11">
-        <v>0</v>
-      </c>
-      <c r="I64" s="11">
-        <v>0</v>
-      </c>
-      <c r="J64" s="11">
-        <v>0</v>
-      </c>
-      <c r="K64" s="11">
-        <v>0</v>
-      </c>
-      <c r="L64" s="11">
-        <v>0</v>
-      </c>
-      <c r="M64" s="11">
-        <v>0</v>
-      </c>
-      <c r="N64" s="11">
-        <v>0</v>
-      </c>
-      <c r="O64" s="11">
-        <v>0</v>
-      </c>
-      <c r="P64" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q64" s="11">
-        <v>0</v>
-      </c>
-      <c r="R64" s="11">
-        <v>0</v>
-      </c>
-      <c r="S64" s="11">
-        <v>0</v>
-      </c>
-      <c r="T64" s="11">
-        <v>0</v>
-      </c>
-      <c r="U64" s="11">
-        <v>0</v>
-      </c>
-      <c r="V64" s="11">
-        <v>0</v>
-      </c>
-      <c r="W64" s="11">
-        <v>0</v>
-      </c>
-      <c r="X64" s="11">
-        <v>0</v>
-      </c>
-      <c r="Y64" s="11">
-        <v>0</v>
-      </c>
-      <c r="Z64" s="11">
-        <v>0</v>
-      </c>
-      <c r="AA64" s="11">
-        <v>0</v>
-      </c>
-      <c r="AB64" s="11">
-        <v>0</v>
-      </c>
-      <c r="AC64" s="11">
-        <v>0</v>
-      </c>
-      <c r="AD64" s="11">
-        <v>0</v>
-      </c>
-      <c r="AE64" s="11">
-        <v>0</v>
-      </c>
-      <c r="AF64" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG64" s="11">
-        <v>0</v>
-      </c>
-      <c r="AH64" s="11">
-        <v>0</v>
-      </c>
-      <c r="AI64" s="11">
-        <v>0</v>
-      </c>
-      <c r="AJ64" s="11">
-        <v>0</v>
-      </c>
-      <c r="AK64" s="11">
-        <v>0</v>
-      </c>
-      <c r="AL64" s="11">
-        <v>0</v>
-      </c>
-      <c r="AM64" s="11">
-        <v>0</v>
-      </c>
-      <c r="AN64" s="11">
-        <v>0</v>
-      </c>
-      <c r="AO64" s="11">
-        <v>0</v>
-      </c>
-      <c r="AP64" s="11">
-        <v>0</v>
-      </c>
-      <c r="AQ64" s="11">
-        <v>0</v>
-      </c>
-      <c r="AR64" s="11">
-        <v>0</v>
-      </c>
-      <c r="AS64" s="13">
-        <v>0</v>
-      </c>
-      <c r="AT64" s="11">
-        <v>0</v>
-      </c>
-      <c r="AU64" s="11">
-        <v>0</v>
-      </c>
-      <c r="AV64" s="11">
-        <v>0</v>
-      </c>
-      <c r="AW64" s="11">
-        <v>0</v>
-      </c>
-      <c r="AX64" s="11">
-        <v>0</v>
-      </c>
-      <c r="AY64" s="11">
-        <v>0</v>
-      </c>
-      <c r="AZ64" s="11">
-        <v>0</v>
-      </c>
-      <c r="BA64" s="11">
-        <v>0</v>
-      </c>
-      <c r="BB64" s="11">
-        <v>0</v>
-      </c>
-      <c r="BC64" s="11">
-        <v>0</v>
-      </c>
-      <c r="BD64" s="11">
-        <v>0</v>
-      </c>
-      <c r="BE64" s="11">
-        <v>0</v>
-      </c>
-      <c r="BF64" s="11">
-        <v>0</v>
-      </c>
-      <c r="BG64" s="11">
-        <v>0</v>
-      </c>
-      <c r="BH64" s="11">
-        <v>0</v>
-      </c>
-      <c r="BI64" s="11">
-        <v>0</v>
-      </c>
-      <c r="BJ64" s="11">
-        <v>0</v>
-      </c>
-      <c r="BK64" s="11">
-        <v>0</v>
-      </c>
-      <c r="BL64" s="11">
-        <v>0</v>
-      </c>
-      <c r="BM64" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:65" ht="15" x14ac:dyDescent="0.25">
-      <c r="A65" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="B65" s="9">
-        <v>0</v>
-      </c>
-      <c r="C65" s="9">
-        <v>0</v>
-      </c>
-      <c r="D65" s="9">
-        <v>0</v>
-      </c>
-      <c r="E65" s="9">
-        <v>0</v>
-      </c>
-      <c r="F65" s="9">
-        <v>0</v>
-      </c>
-      <c r="G65" s="9">
-        <v>0</v>
-      </c>
-      <c r="H65" s="9">
-        <v>0</v>
-      </c>
-      <c r="I65" s="9">
-        <v>0</v>
-      </c>
-      <c r="J65" s="9">
-        <v>0</v>
-      </c>
-      <c r="K65" s="9">
-        <v>0</v>
-      </c>
-      <c r="L65" s="9">
-        <v>0</v>
-      </c>
-      <c r="M65" s="9">
-        <v>0</v>
-      </c>
-      <c r="N65" s="9">
-        <v>0</v>
-      </c>
-      <c r="O65" s="9">
-        <v>0</v>
-      </c>
-      <c r="P65" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q65" s="9">
-        <v>0</v>
-      </c>
-      <c r="R65" s="9">
-        <v>0</v>
-      </c>
-      <c r="S65" s="9">
-        <v>0</v>
-      </c>
-      <c r="T65" s="9">
-        <v>0</v>
-      </c>
-      <c r="U65" s="9">
-        <v>0</v>
-      </c>
-      <c r="V65" s="9">
-        <v>0</v>
-      </c>
-      <c r="W65" s="9">
-        <v>0</v>
-      </c>
-      <c r="X65" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y65" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z65" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA65" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB65" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC65" s="9">
-        <v>0</v>
-      </c>
-      <c r="AD65" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE65" s="9">
-        <v>0</v>
-      </c>
-      <c r="AF65" s="9">
-        <v>0</v>
-      </c>
-      <c r="AG65" s="9">
-        <v>0</v>
-      </c>
-      <c r="AH65" s="9">
-        <v>0</v>
-      </c>
-      <c r="AI65" s="9">
-        <v>0</v>
-      </c>
-      <c r="AJ65" s="9">
-        <v>0</v>
-      </c>
-      <c r="AK65" s="9">
-        <v>0</v>
-      </c>
-      <c r="AL65" s="9">
-        <v>0</v>
-      </c>
-      <c r="AM65" s="9">
-        <v>0</v>
-      </c>
-      <c r="AN65" s="9">
-        <v>0</v>
-      </c>
-      <c r="AO65" s="9">
-        <v>0</v>
-      </c>
-      <c r="AP65" s="9">
-        <v>0</v>
-      </c>
-      <c r="AQ65" s="9">
-        <v>0</v>
-      </c>
-      <c r="AR65" s="9">
-        <v>0</v>
-      </c>
-      <c r="AS65" s="13">
-        <v>0</v>
-      </c>
-      <c r="AT65" s="9">
-        <v>0</v>
-      </c>
-      <c r="AU65" s="9">
-        <v>0</v>
-      </c>
-      <c r="AV65" s="9">
-        <v>0</v>
-      </c>
-      <c r="AW65" s="9">
-        <v>0</v>
-      </c>
-      <c r="AX65" s="9">
-        <v>0</v>
-      </c>
-      <c r="AY65" s="9">
-        <v>0</v>
-      </c>
-      <c r="AZ65" s="9">
-        <v>0</v>
-      </c>
-      <c r="BA65" s="9">
-        <v>0</v>
-      </c>
-      <c r="BB65" s="9">
-        <v>0</v>
-      </c>
-      <c r="BC65" s="9">
-        <v>0</v>
-      </c>
-      <c r="BD65" s="9">
-        <v>0</v>
-      </c>
-      <c r="BE65" s="9">
-        <v>0</v>
-      </c>
-      <c r="BF65" s="9">
-        <v>0</v>
-      </c>
-      <c r="BG65" s="9">
-        <v>0</v>
-      </c>
-      <c r="BH65" s="9">
-        <v>0</v>
-      </c>
-      <c r="BI65" s="9">
-        <v>0</v>
-      </c>
-      <c r="BJ65" s="9">
-        <v>0</v>
-      </c>
-      <c r="BK65" s="9">
-        <v>0</v>
-      </c>
-      <c r="BL65" s="9">
-        <v>0</v>
-      </c>
-      <c r="BM65" s="9">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -13530,80 +12740,80 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C3A068B-3CE6-42E8-85CF-F5B95EE67A5E}">
-  <dimension ref="A1:BM65"/>
+  <dimension ref="A1:BK63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AO28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BM2" sqref="BM2:BM65"/>
+    <sheetView topLeftCell="BD52" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BJ64" sqref="BJ64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="255" max="255" width="11" customWidth="1"/>
-    <col min="511" max="511" width="11" customWidth="1"/>
-    <col min="767" max="767" width="11" customWidth="1"/>
-    <col min="1023" max="1023" width="11" customWidth="1"/>
-    <col min="1279" max="1279" width="11" customWidth="1"/>
-    <col min="1535" max="1535" width="11" customWidth="1"/>
-    <col min="1791" max="1791" width="11" customWidth="1"/>
-    <col min="2047" max="2047" width="11" customWidth="1"/>
-    <col min="2303" max="2303" width="11" customWidth="1"/>
-    <col min="2559" max="2559" width="11" customWidth="1"/>
-    <col min="2815" max="2815" width="11" customWidth="1"/>
-    <col min="3071" max="3071" width="11" customWidth="1"/>
-    <col min="3327" max="3327" width="11" customWidth="1"/>
-    <col min="3583" max="3583" width="11" customWidth="1"/>
-    <col min="3839" max="3839" width="11" customWidth="1"/>
-    <col min="4095" max="4095" width="11" customWidth="1"/>
-    <col min="4351" max="4351" width="11" customWidth="1"/>
-    <col min="4607" max="4607" width="11" customWidth="1"/>
-    <col min="4863" max="4863" width="11" customWidth="1"/>
-    <col min="5119" max="5119" width="11" customWidth="1"/>
-    <col min="5375" max="5375" width="11" customWidth="1"/>
-    <col min="5631" max="5631" width="11" customWidth="1"/>
-    <col min="5887" max="5887" width="11" customWidth="1"/>
-    <col min="6143" max="6143" width="11" customWidth="1"/>
-    <col min="6399" max="6399" width="11" customWidth="1"/>
-    <col min="6655" max="6655" width="11" customWidth="1"/>
-    <col min="6911" max="6911" width="11" customWidth="1"/>
-    <col min="7167" max="7167" width="11" customWidth="1"/>
-    <col min="7423" max="7423" width="11" customWidth="1"/>
-    <col min="7679" max="7679" width="11" customWidth="1"/>
-    <col min="7935" max="7935" width="11" customWidth="1"/>
-    <col min="8191" max="8191" width="11" customWidth="1"/>
-    <col min="8447" max="8447" width="11" customWidth="1"/>
-    <col min="8703" max="8703" width="11" customWidth="1"/>
-    <col min="8959" max="8959" width="11" customWidth="1"/>
-    <col min="9215" max="9215" width="11" customWidth="1"/>
-    <col min="9471" max="9471" width="11" customWidth="1"/>
-    <col min="9727" max="9727" width="11" customWidth="1"/>
-    <col min="9983" max="9983" width="11" customWidth="1"/>
-    <col min="10239" max="10239" width="11" customWidth="1"/>
-    <col min="10495" max="10495" width="11" customWidth="1"/>
-    <col min="10751" max="10751" width="11" customWidth="1"/>
-    <col min="11007" max="11007" width="11" customWidth="1"/>
-    <col min="11263" max="11263" width="11" customWidth="1"/>
-    <col min="11519" max="11519" width="11" customWidth="1"/>
-    <col min="11775" max="11775" width="11" customWidth="1"/>
-    <col min="12031" max="12031" width="11" customWidth="1"/>
-    <col min="12287" max="12287" width="11" customWidth="1"/>
-    <col min="12543" max="12543" width="11" customWidth="1"/>
-    <col min="12799" max="12799" width="11" customWidth="1"/>
-    <col min="13055" max="13055" width="11" customWidth="1"/>
-    <col min="13311" max="13311" width="11" customWidth="1"/>
-    <col min="13567" max="13567" width="11" customWidth="1"/>
-    <col min="13823" max="13823" width="11" customWidth="1"/>
-    <col min="14079" max="14079" width="11" customWidth="1"/>
-    <col min="14335" max="14335" width="11" customWidth="1"/>
-    <col min="14591" max="14591" width="11" customWidth="1"/>
-    <col min="14847" max="14847" width="11" customWidth="1"/>
-    <col min="15103" max="15103" width="11" customWidth="1"/>
-    <col min="15359" max="15359" width="11" customWidth="1"/>
-    <col min="15615" max="15615" width="11" customWidth="1"/>
-    <col min="15871" max="15871" width="11" customWidth="1"/>
-    <col min="16127" max="16127" width="11" customWidth="1"/>
+    <col min="253" max="253" width="11" customWidth="1"/>
+    <col min="509" max="509" width="11" customWidth="1"/>
+    <col min="765" max="765" width="11" customWidth="1"/>
+    <col min="1021" max="1021" width="11" customWidth="1"/>
+    <col min="1277" max="1277" width="11" customWidth="1"/>
+    <col min="1533" max="1533" width="11" customWidth="1"/>
+    <col min="1789" max="1789" width="11" customWidth="1"/>
+    <col min="2045" max="2045" width="11" customWidth="1"/>
+    <col min="2301" max="2301" width="11" customWidth="1"/>
+    <col min="2557" max="2557" width="11" customWidth="1"/>
+    <col min="2813" max="2813" width="11" customWidth="1"/>
+    <col min="3069" max="3069" width="11" customWidth="1"/>
+    <col min="3325" max="3325" width="11" customWidth="1"/>
+    <col min="3581" max="3581" width="11" customWidth="1"/>
+    <col min="3837" max="3837" width="11" customWidth="1"/>
+    <col min="4093" max="4093" width="11" customWidth="1"/>
+    <col min="4349" max="4349" width="11" customWidth="1"/>
+    <col min="4605" max="4605" width="11" customWidth="1"/>
+    <col min="4861" max="4861" width="11" customWidth="1"/>
+    <col min="5117" max="5117" width="11" customWidth="1"/>
+    <col min="5373" max="5373" width="11" customWidth="1"/>
+    <col min="5629" max="5629" width="11" customWidth="1"/>
+    <col min="5885" max="5885" width="11" customWidth="1"/>
+    <col min="6141" max="6141" width="11" customWidth="1"/>
+    <col min="6397" max="6397" width="11" customWidth="1"/>
+    <col min="6653" max="6653" width="11" customWidth="1"/>
+    <col min="6909" max="6909" width="11" customWidth="1"/>
+    <col min="7165" max="7165" width="11" customWidth="1"/>
+    <col min="7421" max="7421" width="11" customWidth="1"/>
+    <col min="7677" max="7677" width="11" customWidth="1"/>
+    <col min="7933" max="7933" width="11" customWidth="1"/>
+    <col min="8189" max="8189" width="11" customWidth="1"/>
+    <col min="8445" max="8445" width="11" customWidth="1"/>
+    <col min="8701" max="8701" width="11" customWidth="1"/>
+    <col min="8957" max="8957" width="11" customWidth="1"/>
+    <col min="9213" max="9213" width="11" customWidth="1"/>
+    <col min="9469" max="9469" width="11" customWidth="1"/>
+    <col min="9725" max="9725" width="11" customWidth="1"/>
+    <col min="9981" max="9981" width="11" customWidth="1"/>
+    <col min="10237" max="10237" width="11" customWidth="1"/>
+    <col min="10493" max="10493" width="11" customWidth="1"/>
+    <col min="10749" max="10749" width="11" customWidth="1"/>
+    <col min="11005" max="11005" width="11" customWidth="1"/>
+    <col min="11261" max="11261" width="11" customWidth="1"/>
+    <col min="11517" max="11517" width="11" customWidth="1"/>
+    <col min="11773" max="11773" width="11" customWidth="1"/>
+    <col min="12029" max="12029" width="11" customWidth="1"/>
+    <col min="12285" max="12285" width="11" customWidth="1"/>
+    <col min="12541" max="12541" width="11" customWidth="1"/>
+    <col min="12797" max="12797" width="11" customWidth="1"/>
+    <col min="13053" max="13053" width="11" customWidth="1"/>
+    <col min="13309" max="13309" width="11" customWidth="1"/>
+    <col min="13565" max="13565" width="11" customWidth="1"/>
+    <col min="13821" max="13821" width="11" customWidth="1"/>
+    <col min="14077" max="14077" width="11" customWidth="1"/>
+    <col min="14333" max="14333" width="11" customWidth="1"/>
+    <col min="14589" max="14589" width="11" customWidth="1"/>
+    <col min="14845" max="14845" width="11" customWidth="1"/>
+    <col min="15101" max="15101" width="11" customWidth="1"/>
+    <col min="15357" max="15357" width="11" customWidth="1"/>
+    <col min="15613" max="15613" width="11" customWidth="1"/>
+    <col min="15869" max="15869" width="11" customWidth="1"/>
+    <col min="16125" max="16125" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -13735,7 +12945,7 @@
         <v>42</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AT1" s="1" t="s">
         <v>43</v>
@@ -13765,10 +12975,10 @@
         <v>51</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="BE1" s="1" t="s">
         <v>52</v>
@@ -13791,14 +13001,8 @@
       <c r="BK1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="BL1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="BM1" t="s">
-        <v>60</v>
-      </c>
     </row>
-    <row r="2" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -13988,14 +13192,8 @@
       <c r="BK2" s="2">
         <v>0.02</v>
       </c>
-      <c r="BL2" s="3">
-        <v>0</v>
-      </c>
-      <c r="BM2" s="14">
-        <v>0</v>
-      </c>
     </row>
-    <row r="3" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -14185,14 +13383,8 @@
       <c r="BK3" s="2">
         <v>0.05</v>
       </c>
-      <c r="BL3" s="3">
-        <v>0</v>
-      </c>
-      <c r="BM3" s="14">
-        <v>0</v>
-      </c>
     </row>
-    <row r="4" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -14382,14 +13574,8 @@
       <c r="BK4" s="3">
         <v>0</v>
       </c>
-      <c r="BL4" s="3">
-        <v>0</v>
-      </c>
-      <c r="BM4" s="14">
-        <v>0</v>
-      </c>
     </row>
-    <row r="5" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -14579,14 +13765,8 @@
       <c r="BK5" s="2">
         <v>1.45</v>
       </c>
-      <c r="BL5" s="3">
-        <v>0</v>
-      </c>
-      <c r="BM5" s="14">
-        <v>0</v>
-      </c>
     </row>
-    <row r="6" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -14776,14 +13956,8 @@
       <c r="BK6" s="4">
         <v>70.5</v>
       </c>
-      <c r="BL6" s="3">
-        <v>0</v>
-      </c>
-      <c r="BM6" s="14">
-        <v>0</v>
-      </c>
     </row>
-    <row r="7" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -14973,14 +14147,8 @@
       <c r="BK7" s="2">
         <v>0.23</v>
       </c>
-      <c r="BL7" s="3">
-        <v>0</v>
-      </c>
-      <c r="BM7" s="14">
-        <v>0</v>
-      </c>
     </row>
-    <row r="8" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -15170,14 +14338,8 @@
       <c r="BK8" s="3">
         <v>2</v>
       </c>
-      <c r="BL8" s="3">
-        <v>0</v>
-      </c>
-      <c r="BM8" s="14">
-        <v>0</v>
-      </c>
     </row>
-    <row r="9" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -15367,14 +14529,8 @@
       <c r="BK9" s="2">
         <v>21.68</v>
       </c>
-      <c r="BL9" s="3">
-        <v>0</v>
-      </c>
-      <c r="BM9" s="14">
-        <v>0</v>
-      </c>
     </row>
-    <row r="10" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -15564,14 +14720,8 @@
       <c r="BK10" s="2">
         <v>48.36</v>
       </c>
-      <c r="BL10" s="3">
-        <v>0</v>
-      </c>
-      <c r="BM10" s="14">
-        <v>0</v>
-      </c>
     </row>
-    <row r="11" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -15761,14 +14911,8 @@
       <c r="BK11" s="2">
         <v>61.26</v>
       </c>
-      <c r="BL11" s="3">
-        <v>0</v>
-      </c>
-      <c r="BM11" s="14">
-        <v>0</v>
-      </c>
     </row>
-    <row r="12" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -15958,14 +15102,8 @@
       <c r="BK12" s="2">
         <v>9.4600000000000009</v>
       </c>
-      <c r="BL12" s="3">
-        <v>0</v>
-      </c>
-      <c r="BM12" s="14">
-        <v>0</v>
-      </c>
     </row>
-    <row r="13" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -16155,14 +15293,8 @@
       <c r="BK13" s="4">
         <v>0.1</v>
       </c>
-      <c r="BL13" s="3">
-        <v>0</v>
-      </c>
-      <c r="BM13" s="14">
-        <v>0</v>
-      </c>
     </row>
-    <row r="14" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -16352,14 +15484,8 @@
       <c r="BK14" s="2">
         <v>44.37</v>
       </c>
-      <c r="BL14" s="3">
-        <v>0</v>
-      </c>
-      <c r="BM14" s="14">
-        <v>0</v>
-      </c>
     </row>
-    <row r="15" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -16549,14 +15675,8 @@
       <c r="BK15" s="2">
         <v>7.24</v>
       </c>
-      <c r="BL15" s="3">
-        <v>0</v>
-      </c>
-      <c r="BM15" s="14">
-        <v>0</v>
-      </c>
     </row>
-    <row r="16" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -16746,14 +15866,8 @@
       <c r="BK16" s="2">
         <v>34.68</v>
       </c>
-      <c r="BL16" s="3">
-        <v>0</v>
-      </c>
-      <c r="BM16" s="14">
-        <v>0</v>
-      </c>
     </row>
-    <row r="17" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -16943,14 +16057,8 @@
       <c r="BK17" s="2">
         <v>26.53</v>
       </c>
-      <c r="BL17" s="3">
-        <v>0</v>
-      </c>
-      <c r="BM17" s="14">
-        <v>0</v>
-      </c>
     </row>
-    <row r="18" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -17140,14 +16248,8 @@
       <c r="BK18" s="2">
         <v>33.78</v>
       </c>
-      <c r="BL18" s="3">
-        <v>0</v>
-      </c>
-      <c r="BM18" s="14">
-        <v>0</v>
-      </c>
     </row>
-    <row r="19" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -17337,14 +16439,8 @@
       <c r="BK19" s="2">
         <v>76.06</v>
       </c>
-      <c r="BL19" s="3">
-        <v>0</v>
-      </c>
-      <c r="BM19" s="14">
-        <v>0</v>
-      </c>
     </row>
-    <row r="20" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -17534,14 +16630,8 @@
       <c r="BK20" s="2">
         <v>121.98</v>
       </c>
-      <c r="BL20" s="3">
-        <v>0</v>
-      </c>
-      <c r="BM20" s="14">
-        <v>0</v>
-      </c>
     </row>
-    <row r="21" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
@@ -17731,14 +16821,8 @@
       <c r="BK21" s="2">
         <v>34.22</v>
       </c>
-      <c r="BL21" s="3">
-        <v>0</v>
-      </c>
-      <c r="BM21" s="14">
-        <v>0</v>
-      </c>
     </row>
-    <row r="22" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
@@ -17928,14 +17012,8 @@
       <c r="BK22" s="2">
         <v>10.67</v>
       </c>
-      <c r="BL22" s="3">
-        <v>0</v>
-      </c>
-      <c r="BM22" s="14">
-        <v>0</v>
-      </c>
     </row>
-    <row r="23" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
@@ -18125,14 +17203,8 @@
       <c r="BK23" s="2">
         <v>8.6199999999999992</v>
       </c>
-      <c r="BL23" s="3">
-        <v>0</v>
-      </c>
-      <c r="BM23" s="14">
-        <v>0</v>
-      </c>
     </row>
-    <row r="24" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
@@ -18322,14 +17394,8 @@
       <c r="BK24" s="2">
         <v>19.809999999999999</v>
       </c>
-      <c r="BL24" s="3">
-        <v>0</v>
-      </c>
-      <c r="BM24" s="14">
-        <v>0</v>
-      </c>
     </row>
-    <row r="25" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
@@ -18519,14 +17585,8 @@
       <c r="BK25" s="2">
         <v>17.34</v>
       </c>
-      <c r="BL25" s="3">
-        <v>0</v>
-      </c>
-      <c r="BM25" s="14">
-        <v>0</v>
-      </c>
     </row>
-    <row r="26" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
@@ -18716,14 +17776,8 @@
       <c r="BK26" s="2">
         <v>2.15</v>
       </c>
-      <c r="BL26" s="3">
-        <v>0</v>
-      </c>
-      <c r="BM26" s="14">
-        <v>0</v>
-      </c>
     </row>
-    <row r="27" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
@@ -18913,14 +17967,8 @@
       <c r="BK27" s="2">
         <v>61.62</v>
       </c>
-      <c r="BL27" s="3">
-        <v>0</v>
-      </c>
-      <c r="BM27" s="14">
-        <v>0</v>
-      </c>
     </row>
-    <row r="28" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
@@ -19110,14 +18158,8 @@
       <c r="BK28" s="2">
         <v>21.14</v>
       </c>
-      <c r="BL28" s="3">
-        <v>0</v>
-      </c>
-      <c r="BM28" s="14">
-        <v>0</v>
-      </c>
     </row>
-    <row r="29" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
@@ -19307,14 +18349,8 @@
       <c r="BK29" s="2">
         <v>27.06</v>
       </c>
-      <c r="BL29" s="3">
-        <v>0</v>
-      </c>
-      <c r="BM29" s="14">
-        <v>0</v>
-      </c>
     </row>
-    <row r="30" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
@@ -19504,14 +18540,8 @@
       <c r="BK30" s="2">
         <v>143.38999999999999</v>
       </c>
-      <c r="BL30" s="3">
-        <v>0</v>
-      </c>
-      <c r="BM30" s="14">
-        <v>0</v>
-      </c>
     </row>
-    <row r="31" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
@@ -19701,14 +18731,8 @@
       <c r="BK31" s="2">
         <v>11.12</v>
       </c>
-      <c r="BL31" s="3">
-        <v>0</v>
-      </c>
-      <c r="BM31" s="14">
-        <v>0</v>
-      </c>
     </row>
-    <row r="32" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
@@ -19898,14 +18922,8 @@
       <c r="BK32" s="2">
         <v>68.459999999999994</v>
       </c>
-      <c r="BL32" s="3">
-        <v>0</v>
-      </c>
-      <c r="BM32" s="14">
-        <v>0</v>
-      </c>
     </row>
-    <row r="33" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
@@ -20095,14 +19113,8 @@
       <c r="BK33" s="2">
         <v>0.04</v>
       </c>
-      <c r="BL33" s="3">
-        <v>0</v>
-      </c>
-      <c r="BM33" s="14">
-        <v>0</v>
-      </c>
     </row>
-    <row r="34" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
@@ -20292,14 +19304,8 @@
       <c r="BK34" s="2">
         <v>36.85</v>
       </c>
-      <c r="BL34" s="3">
-        <v>0</v>
-      </c>
-      <c r="BM34" s="14">
-        <v>0</v>
-      </c>
     </row>
-    <row r="35" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>33</v>
       </c>
@@ -20489,14 +19495,8 @@
       <c r="BK35" s="2">
         <v>78.16</v>
       </c>
-      <c r="BL35" s="3">
-        <v>0</v>
-      </c>
-      <c r="BM35" s="14">
-        <v>0</v>
-      </c>
     </row>
-    <row r="36" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>34</v>
       </c>
@@ -20686,14 +19686,8 @@
       <c r="BK36" s="2">
         <v>55.46</v>
       </c>
-      <c r="BL36" s="3">
-        <v>0</v>
-      </c>
-      <c r="BM36" s="14">
-        <v>0</v>
-      </c>
     </row>
-    <row r="37" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>35</v>
       </c>
@@ -20883,14 +19877,8 @@
       <c r="BK37" s="2">
         <v>146.75</v>
       </c>
-      <c r="BL37" s="3">
-        <v>0</v>
-      </c>
-      <c r="BM37" s="14">
-        <v>0</v>
-      </c>
     </row>
-    <row r="38" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>36</v>
       </c>
@@ -21080,14 +20068,8 @@
       <c r="BK38" s="2">
         <v>1.1200000000000001</v>
       </c>
-      <c r="BL38" s="3">
-        <v>0</v>
-      </c>
-      <c r="BM38" s="14">
-        <v>0</v>
-      </c>
     </row>
-    <row r="39" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>37</v>
       </c>
@@ -21277,14 +20259,8 @@
       <c r="BK39" s="2">
         <v>112.35</v>
       </c>
-      <c r="BL39" s="3">
-        <v>0</v>
-      </c>
-      <c r="BM39" s="14">
-        <v>0</v>
-      </c>
     </row>
-    <row r="40" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>38</v>
       </c>
@@ -21474,14 +20450,8 @@
       <c r="BK40" s="2">
         <v>177.11</v>
       </c>
-      <c r="BL40" s="3">
-        <v>0</v>
-      </c>
-      <c r="BM40" s="14">
-        <v>0</v>
-      </c>
     </row>
-    <row r="41" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>39</v>
       </c>
@@ -21671,14 +20641,8 @@
       <c r="BK41" s="2">
         <v>51.32</v>
       </c>
-      <c r="BL41" s="3">
-        <v>0</v>
-      </c>
-      <c r="BM41" s="14">
-        <v>0</v>
-      </c>
     </row>
-    <row r="42" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>40</v>
       </c>
@@ -21868,14 +20832,8 @@
       <c r="BK42" s="2">
         <v>258.56</v>
       </c>
-      <c r="BL42" s="3">
-        <v>0</v>
-      </c>
-      <c r="BM42" s="14">
-        <v>0</v>
-      </c>
     </row>
-    <row r="43" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>41</v>
       </c>
@@ -22065,14 +21023,8 @@
       <c r="BK43" s="2">
         <v>54.99</v>
       </c>
-      <c r="BL43" s="3">
-        <v>0</v>
-      </c>
-      <c r="BM43" s="14">
-        <v>0</v>
-      </c>
     </row>
-    <row r="44" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>42</v>
       </c>
@@ -22262,16 +21214,10 @@
       <c r="BK44" s="2">
         <v>76.98</v>
       </c>
-      <c r="BL44" s="3">
-        <v>0</v>
-      </c>
-      <c r="BM44" s="14">
-        <v>0</v>
-      </c>
     </row>
-    <row r="45" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B45" s="2">
         <v>14.88</v>
@@ -22459,14 +21405,8 @@
       <c r="BK45" s="2">
         <v>152.11000000000001</v>
       </c>
-      <c r="BL45" s="3">
-        <v>0</v>
-      </c>
-      <c r="BM45" s="14">
-        <v>0</v>
-      </c>
     </row>
-    <row r="46" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>43</v>
       </c>
@@ -22656,14 +21596,8 @@
       <c r="BK46" s="2">
         <v>477.34</v>
       </c>
-      <c r="BL46" s="3">
-        <v>0</v>
-      </c>
-      <c r="BM46" s="14">
-        <v>0</v>
-      </c>
     </row>
-    <row r="47" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>44</v>
       </c>
@@ -22853,14 +21787,8 @@
       <c r="BK47" s="2">
         <v>436.47</v>
       </c>
-      <c r="BL47" s="3">
-        <v>0</v>
-      </c>
-      <c r="BM47" s="14">
-        <v>0</v>
-      </c>
     </row>
-    <row r="48" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>45</v>
       </c>
@@ -23050,14 +21978,8 @@
       <c r="BK48" s="3">
         <v>0</v>
       </c>
-      <c r="BL48" s="3">
-        <v>0</v>
-      </c>
-      <c r="BM48" s="14">
-        <v>0</v>
-      </c>
     </row>
-    <row r="49" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>46</v>
       </c>
@@ -23247,14 +22169,8 @@
       <c r="BK49" s="2">
         <v>0.36</v>
       </c>
-      <c r="BL49" s="3">
-        <v>0</v>
-      </c>
-      <c r="BM49" s="14">
-        <v>0</v>
-      </c>
     </row>
-    <row r="50" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>47</v>
       </c>
@@ -23444,14 +22360,8 @@
       <c r="BK50" s="2">
         <v>48.26</v>
       </c>
-      <c r="BL50" s="3">
-        <v>0</v>
-      </c>
-      <c r="BM50" s="14">
-        <v>0</v>
-      </c>
     </row>
-    <row r="51" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>48</v>
       </c>
@@ -23641,14 +22551,8 @@
       <c r="BK51" s="2">
         <v>1476.02</v>
       </c>
-      <c r="BL51" s="3">
-        <v>0</v>
-      </c>
-      <c r="BM51" s="14">
-        <v>0</v>
-      </c>
     </row>
-    <row r="52" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>49</v>
       </c>
@@ -23838,14 +22742,8 @@
       <c r="BK52" s="2">
         <v>106.06</v>
       </c>
-      <c r="BL52" s="3">
-        <v>0</v>
-      </c>
-      <c r="BM52" s="14">
-        <v>0</v>
-      </c>
     </row>
-    <row r="53" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>50</v>
       </c>
@@ -24035,14 +22933,8 @@
       <c r="BK53" s="2">
         <v>6.86</v>
       </c>
-      <c r="BL53" s="3">
-        <v>0</v>
-      </c>
-      <c r="BM53" s="14">
-        <v>0</v>
-      </c>
     </row>
-    <row r="54" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>51</v>
       </c>
@@ -24232,16 +23124,10 @@
       <c r="BK54" s="2">
         <v>343.18</v>
       </c>
-      <c r="BL54" s="3">
-        <v>0</v>
-      </c>
-      <c r="BM54" s="14">
-        <v>0</v>
-      </c>
     </row>
-    <row r="55" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B55" s="3">
         <v>0</v>
@@ -24429,16 +23315,10 @@
       <c r="BK55" s="3">
         <v>0</v>
       </c>
-      <c r="BL55" s="3">
-        <v>0</v>
-      </c>
-      <c r="BM55" s="14">
-        <v>0</v>
-      </c>
     </row>
-    <row r="56" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B56" s="2">
         <v>100.04</v>
@@ -24626,14 +23506,8 @@
       <c r="BK56" s="2">
         <v>42.98</v>
       </c>
-      <c r="BL56" s="3">
-        <v>0</v>
-      </c>
-      <c r="BM56" s="14">
-        <v>0</v>
-      </c>
     </row>
-    <row r="57" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>52</v>
       </c>
@@ -24823,14 +23697,8 @@
       <c r="BK57" s="4">
         <v>8.3000000000000007</v>
       </c>
-      <c r="BL57" s="3">
-        <v>0</v>
-      </c>
-      <c r="BM57" s="14">
-        <v>0</v>
-      </c>
     </row>
-    <row r="58" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>53</v>
       </c>
@@ -25020,14 +23888,8 @@
       <c r="BK58" s="3">
         <v>0</v>
       </c>
-      <c r="BL58" s="3">
-        <v>0</v>
-      </c>
-      <c r="BM58" s="14">
-        <v>0</v>
-      </c>
     </row>
-    <row r="59" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>54</v>
       </c>
@@ -25217,14 +24079,8 @@
       <c r="BK59" s="2">
         <v>5.65</v>
       </c>
-      <c r="BL59" s="3">
-        <v>0</v>
-      </c>
-      <c r="BM59" s="14">
-        <v>0</v>
-      </c>
     </row>
-    <row r="60" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>55</v>
       </c>
@@ -25414,14 +24270,8 @@
       <c r="BK60" s="2">
         <v>25.05</v>
       </c>
-      <c r="BL60" s="3">
-        <v>0</v>
-      </c>
-      <c r="BM60" s="14">
-        <v>0</v>
-      </c>
     </row>
-    <row r="61" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>56</v>
       </c>
@@ -25611,14 +24461,8 @@
       <c r="BK61" s="3">
         <v>0</v>
       </c>
-      <c r="BL61" s="3">
-        <v>0</v>
-      </c>
-      <c r="BM61" s="14">
-        <v>0</v>
-      </c>
     </row>
-    <row r="62" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>57</v>
       </c>
@@ -25808,14 +24652,8 @@
       <c r="BK62" s="2">
         <v>10.74</v>
       </c>
-      <c r="BL62" s="3">
-        <v>0</v>
-      </c>
-      <c r="BM62" s="14">
-        <v>0</v>
-      </c>
     </row>
-    <row r="63" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>58</v>
       </c>
@@ -26004,406 +24842,6 @@
       </c>
       <c r="BK63" s="2">
         <v>807.49</v>
-      </c>
-      <c r="BL63" s="3">
-        <v>0</v>
-      </c>
-      <c r="BM63" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:65" x14ac:dyDescent="0.2">
-      <c r="A64" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B64" s="3">
-        <v>0</v>
-      </c>
-      <c r="C64" s="3">
-        <v>0</v>
-      </c>
-      <c r="D64" s="3">
-        <v>0</v>
-      </c>
-      <c r="E64" s="3">
-        <v>0</v>
-      </c>
-      <c r="F64" s="3">
-        <v>0</v>
-      </c>
-      <c r="G64" s="3">
-        <v>0</v>
-      </c>
-      <c r="H64" s="3">
-        <v>0</v>
-      </c>
-      <c r="I64" s="3">
-        <v>0</v>
-      </c>
-      <c r="J64" s="3">
-        <v>0</v>
-      </c>
-      <c r="K64" s="3">
-        <v>0</v>
-      </c>
-      <c r="L64" s="3">
-        <v>0</v>
-      </c>
-      <c r="M64" s="3">
-        <v>0</v>
-      </c>
-      <c r="N64" s="3">
-        <v>0</v>
-      </c>
-      <c r="O64" s="3">
-        <v>0</v>
-      </c>
-      <c r="P64" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q64" s="3">
-        <v>0</v>
-      </c>
-      <c r="R64" s="3">
-        <v>0</v>
-      </c>
-      <c r="S64" s="3">
-        <v>0</v>
-      </c>
-      <c r="T64" s="3">
-        <v>0</v>
-      </c>
-      <c r="U64" s="3">
-        <v>0</v>
-      </c>
-      <c r="V64" s="3">
-        <v>0</v>
-      </c>
-      <c r="W64" s="3">
-        <v>0</v>
-      </c>
-      <c r="X64" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y64" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z64" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA64" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB64" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC64" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD64" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE64" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF64" s="3">
-        <v>0</v>
-      </c>
-      <c r="AG64" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH64" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI64" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ64" s="3">
-        <v>0</v>
-      </c>
-      <c r="AK64" s="3">
-        <v>0</v>
-      </c>
-      <c r="AL64" s="3">
-        <v>0</v>
-      </c>
-      <c r="AM64" s="3">
-        <v>0</v>
-      </c>
-      <c r="AN64" s="3">
-        <v>0</v>
-      </c>
-      <c r="AO64" s="3">
-        <v>0</v>
-      </c>
-      <c r="AP64" s="3">
-        <v>0</v>
-      </c>
-      <c r="AQ64" s="3">
-        <v>0</v>
-      </c>
-      <c r="AR64" s="3">
-        <v>0</v>
-      </c>
-      <c r="AS64" s="3">
-        <v>0</v>
-      </c>
-      <c r="AT64" s="3">
-        <v>0</v>
-      </c>
-      <c r="AU64" s="3">
-        <v>0</v>
-      </c>
-      <c r="AV64" s="3">
-        <v>0</v>
-      </c>
-      <c r="AW64" s="3">
-        <v>0</v>
-      </c>
-      <c r="AX64" s="3">
-        <v>0</v>
-      </c>
-      <c r="AY64" s="3">
-        <v>0</v>
-      </c>
-      <c r="AZ64" s="3">
-        <v>0</v>
-      </c>
-      <c r="BA64" s="3">
-        <v>0</v>
-      </c>
-      <c r="BB64" s="3">
-        <v>0</v>
-      </c>
-      <c r="BC64" s="3">
-        <v>0</v>
-      </c>
-      <c r="BD64" s="3">
-        <v>0</v>
-      </c>
-      <c r="BE64" s="3">
-        <v>0</v>
-      </c>
-      <c r="BF64" s="3">
-        <v>0</v>
-      </c>
-      <c r="BG64" s="3">
-        <v>0</v>
-      </c>
-      <c r="BH64" s="3">
-        <v>0</v>
-      </c>
-      <c r="BI64" s="3">
-        <v>0</v>
-      </c>
-      <c r="BJ64" s="3">
-        <v>0</v>
-      </c>
-      <c r="BK64" s="3">
-        <v>0</v>
-      </c>
-      <c r="BL64" s="3">
-        <v>0</v>
-      </c>
-      <c r="BM64" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:65" x14ac:dyDescent="0.2">
-      <c r="A65" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B65" s="3">
-        <v>0</v>
-      </c>
-      <c r="C65" s="3">
-        <v>0</v>
-      </c>
-      <c r="D65" s="3">
-        <v>0</v>
-      </c>
-      <c r="E65" s="3">
-        <v>0</v>
-      </c>
-      <c r="F65" s="3">
-        <v>0</v>
-      </c>
-      <c r="G65" s="3">
-        <v>0</v>
-      </c>
-      <c r="H65" s="3">
-        <v>0</v>
-      </c>
-      <c r="I65" s="3">
-        <v>0</v>
-      </c>
-      <c r="J65" s="3">
-        <v>0</v>
-      </c>
-      <c r="K65" s="3">
-        <v>0</v>
-      </c>
-      <c r="L65" s="3">
-        <v>0</v>
-      </c>
-      <c r="M65" s="3">
-        <v>0</v>
-      </c>
-      <c r="N65" s="3">
-        <v>0</v>
-      </c>
-      <c r="O65" s="3">
-        <v>0</v>
-      </c>
-      <c r="P65" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q65" s="3">
-        <v>0</v>
-      </c>
-      <c r="R65" s="3">
-        <v>0</v>
-      </c>
-      <c r="S65" s="3">
-        <v>0</v>
-      </c>
-      <c r="T65" s="3">
-        <v>0</v>
-      </c>
-      <c r="U65" s="3">
-        <v>0</v>
-      </c>
-      <c r="V65" s="3">
-        <v>0</v>
-      </c>
-      <c r="W65" s="3">
-        <v>0</v>
-      </c>
-      <c r="X65" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y65" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z65" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA65" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB65" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC65" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD65" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE65" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF65" s="3">
-        <v>0</v>
-      </c>
-      <c r="AG65" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH65" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI65" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ65" s="3">
-        <v>0</v>
-      </c>
-      <c r="AK65" s="3">
-        <v>0</v>
-      </c>
-      <c r="AL65" s="3">
-        <v>0</v>
-      </c>
-      <c r="AM65" s="3">
-        <v>0</v>
-      </c>
-      <c r="AN65" s="3">
-        <v>0</v>
-      </c>
-      <c r="AO65" s="3">
-        <v>0</v>
-      </c>
-      <c r="AP65" s="3">
-        <v>0</v>
-      </c>
-      <c r="AQ65" s="3">
-        <v>0</v>
-      </c>
-      <c r="AR65" s="3">
-        <v>0</v>
-      </c>
-      <c r="AS65" s="3">
-        <v>0</v>
-      </c>
-      <c r="AT65" s="3">
-        <v>0</v>
-      </c>
-      <c r="AU65" s="3">
-        <v>0</v>
-      </c>
-      <c r="AV65" s="3">
-        <v>0</v>
-      </c>
-      <c r="AW65" s="3">
-        <v>0</v>
-      </c>
-      <c r="AX65" s="3">
-        <v>0</v>
-      </c>
-      <c r="AY65" s="3">
-        <v>0</v>
-      </c>
-      <c r="AZ65" s="3">
-        <v>0</v>
-      </c>
-      <c r="BA65" s="3">
-        <v>0</v>
-      </c>
-      <c r="BB65" s="3">
-        <v>0</v>
-      </c>
-      <c r="BC65" s="3">
-        <v>0</v>
-      </c>
-      <c r="BD65" s="3">
-        <v>0</v>
-      </c>
-      <c r="BE65" s="3">
-        <v>0</v>
-      </c>
-      <c r="BF65" s="3">
-        <v>0</v>
-      </c>
-      <c r="BG65" s="3">
-        <v>0</v>
-      </c>
-      <c r="BH65" s="3">
-        <v>0</v>
-      </c>
-      <c r="BI65" s="3">
-        <v>0</v>
-      </c>
-      <c r="BJ65" s="3">
-        <v>0</v>
-      </c>
-      <c r="BK65" s="3">
-        <v>0</v>
-      </c>
-      <c r="BL65" s="3">
-        <v>0</v>
-      </c>
-      <c r="BM65" s="14">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
